--- a/需求文档/酷开开放平台接口列表.xlsx
+++ b/需求文档/酷开开放平台接口列表.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21945" windowHeight="14325"/>
+    <workbookView windowWidth="30000" windowHeight="14745"/>
   </bookViews>
   <sheets>
     <sheet name="酷开开放平台接口列表" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">酷开开放平台接口列表!$A$1:$D$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">酷开开放平台接口列表!$A$1:$D$105</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -723,10 +723,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -745,20 +745,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -768,10 +754,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -789,11 +782,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -805,16 +813,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,7 +846,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1000,6 +1000,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1012,7 +1162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,163 +1174,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,16 +1252,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1285,16 +1285,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1327,10 +1327,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1339,19 +1339,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1360,13 +1360,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1375,6 +1372,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1384,28 +1384,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1414,58 +1414,58 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1875,8 +1875,8 @@
   <sheetPr/>
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3327,8 +3327,8 @@
       <c r="D105" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D95">
-    <sortState ref="A1:D95">
+  <autoFilter ref="A1:D105">
+    <sortState ref="A1:D105">
       <sortCondition ref="A1" descending="1"/>
     </sortState>
   </autoFilter>

--- a/需求文档/酷开开放平台接口列表.xlsx
+++ b/需求文档/酷开开放平台接口列表.xlsx
@@ -10,14 +10,14 @@
     <sheet name="酷开开放平台接口列表" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">酷开开放平台接口列表!$A$1:$D$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">酷开开放平台接口列表!$A$1:$D$95</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212">
   <si>
     <t>模块划分</t>
   </si>
@@ -358,6 +358,18 @@
     <t>支付接口</t>
   </si>
   <si>
+    <t>purchaseOrder</t>
+  </si>
+  <si>
+    <t>启动支付页面</t>
+  </si>
+  <si>
+    <t>purchaseOrder2</t>
+  </si>
+  <si>
+    <t>启动集成到webSDK内部的支付页面----------即2.2.3（含）"versionCode"&gt;=2020003以上使用</t>
+  </si>
+  <si>
     <t>addPurchaseOrderListener</t>
   </si>
   <si>
@@ -370,18 +382,6 @@
     <t>移除支付状态事件监听</t>
   </si>
   <si>
-    <t>purchaseOrder</t>
-  </si>
-  <si>
-    <t>启动支付页面</t>
-  </si>
-  <si>
-    <t>purchaseOrder2</t>
-  </si>
-  <si>
-    <t>启动集成到webSDK内部的支付页面----------即2.2.3（含）"versionCode"&gt;=2020003以上使用</t>
-  </si>
-  <si>
     <t>优惠券接口</t>
   </si>
   <si>
@@ -424,60 +424,60 @@
     <t>影视模块</t>
   </si>
   <si>
+    <t>startMovieHome</t>
+  </si>
+  <si>
+    <t>启动影视主页</t>
+  </si>
+  <si>
+    <t>startMovieList</t>
+  </si>
+  <si>
+    <t>id跳转影视列表</t>
+  </si>
+  <si>
     <t>startMovieDetail</t>
   </si>
   <si>
     <t>id跳转影视详情</t>
   </si>
   <si>
+    <t>startVideospecial</t>
+  </si>
+  <si>
+    <t>轮播专题[一级]</t>
+  </si>
+  <si>
+    <t>startVideospecial2</t>
+  </si>
+  <si>
+    <t>轮播专题【两级】</t>
+  </si>
+  <si>
+    <t>startMovieTopic</t>
+  </si>
+  <si>
+    <t>id启动影视专题页</t>
+  </si>
+  <si>
+    <t>startMovieHomeSpecialTopic</t>
+  </si>
+  <si>
+    <t>启动主页专题</t>
+  </si>
+  <si>
+    <t>startMovieMemberCenter</t>
+  </si>
+  <si>
+    <t>启动影视会员中心</t>
+  </si>
+  <si>
     <t>startMovieHistory</t>
   </si>
   <si>
     <t>启动影视历史</t>
   </si>
   <si>
-    <t>startMovieHome</t>
-  </si>
-  <si>
-    <t>启动影视主页</t>
-  </si>
-  <si>
-    <t>startMovieList</t>
-  </si>
-  <si>
-    <t>id跳转影视列表</t>
-  </si>
-  <si>
-    <t>startMovieMemberCenter</t>
-  </si>
-  <si>
-    <t>启动影视会员中心</t>
-  </si>
-  <si>
-    <t>startVideospecial</t>
-  </si>
-  <si>
-    <t>轮播专题[一级]</t>
-  </si>
-  <si>
-    <t>startVideospecial2</t>
-  </si>
-  <si>
-    <t>轮播专题【两级】</t>
-  </si>
-  <si>
-    <t>startMovieTopic</t>
-  </si>
-  <si>
-    <t>id启动影视专题页</t>
-  </si>
-  <si>
-    <t>startMovieHomeSpecialTopic</t>
-  </si>
-  <si>
-    <t>启动主页专题</t>
-  </si>
-  <si>
     <t>商城模块</t>
   </si>
   <si>
@@ -653,69 +653,6 @@
   </si>
   <si>
     <t>theme_bg</t>
-  </si>
-  <si>
-    <t>数据缓存</t>
-  </si>
-  <si>
-    <t>setStorage</t>
-  </si>
-  <si>
-    <t>将数据存储在本地缓存中指定的 key 中。</t>
-  </si>
-  <si>
-    <t>setStorageSync</t>
-  </si>
-  <si>
-    <t>setStorage同步版本</t>
-  </si>
-  <si>
-    <t>getStorage</t>
-  </si>
-  <si>
-    <t>从本地缓存中异步获取指定 key 的内容</t>
-  </si>
-  <si>
-    <t>getStorageSync</t>
-  </si>
-  <si>
-    <t>getStorage 的同步版本</t>
-  </si>
-  <si>
-    <t>getStorageInfo</t>
-  </si>
-  <si>
-    <t>异步获取当前storage的相关信息</t>
-  </si>
-  <si>
-    <t>getStorageInfoSync</t>
-  </si>
-  <si>
-    <t>getStorageInfo 的同步版本</t>
-  </si>
-  <si>
-    <t>removeStorage</t>
-  </si>
-  <si>
-    <t>从本地缓存中移除指定 key</t>
-  </si>
-  <si>
-    <t>removeStorageSync(string key)</t>
-  </si>
-  <si>
-    <t>removeStorage 的同步版本</t>
-  </si>
-  <si>
-    <t>clearStorage</t>
-  </si>
-  <si>
-    <t>清理本地数据缓存</t>
-  </si>
-  <si>
-    <t>clearStorageSync</t>
-  </si>
-  <si>
-    <t>clearStorage 的同步版本</t>
   </si>
 </sst>
 </file>
@@ -889,7 +826,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -989,12 +926,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,10 +1258,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1339,137 +1270,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1549,9 +1480,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1873,10 +1801,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2622,7 +2550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" s="15" t="s">
         <v>106</v>
       </c>
@@ -2635,8 +2563,11 @@
       <c r="D49" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="15" t="s">
         <v>106</v>
       </c>
@@ -2647,8 +2578,11 @@
         <v>111</v>
       </c>
       <c r="D50" s="7"/>
-    </row>
-    <row r="51" ht="15" customHeight="1" spans="1:4">
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="16" t="s">
         <v>112</v>
       </c>
@@ -2661,8 +2595,11 @@
       <c r="D51" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" ht="40.5" spans="1:5">
       <c r="A52" s="16" t="s">
         <v>112</v>
       </c>
@@ -2675,8 +2612,11 @@
       <c r="D52" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" ht="15" customHeight="1" spans="1:5">
       <c r="A53" s="16" t="s">
         <v>112</v>
       </c>
@@ -2689,8 +2629,11 @@
       <c r="D53" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="54" ht="40.5" spans="1:4">
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="16" t="s">
         <v>112</v>
       </c>
@@ -2703,8 +2646,11 @@
       <c r="D54" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="17" t="s">
         <v>121</v>
       </c>
@@ -2717,8 +2663,11 @@
       <c r="D55" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="17" t="s">
         <v>121</v>
       </c>
@@ -2731,8 +2680,11 @@
       <c r="D56" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="18" t="s">
         <v>126</v>
       </c>
@@ -2745,8 +2697,11 @@
       <c r="D57" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="18" t="s">
         <v>126</v>
       </c>
@@ -2759,8 +2714,11 @@
       <c r="D58" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="18" t="s">
         <v>126</v>
       </c>
@@ -2772,6 +2730,9 @@
       </c>
       <c r="D59" s="7" t="s">
         <v>129</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3206,137 +3167,12 @@
       </c>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D96" s="5"/>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D98" s="5"/>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D99" s="5"/>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D100" s="5"/>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D101" s="5"/>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D102" s="5"/>
-    </row>
-    <row r="103" ht="16" customHeight="1" spans="1:4">
-      <c r="A103" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D103" s="5"/>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D104" s="5"/>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D105" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D105">
-    <sortState ref="A1:D105">
+  <autoFilter ref="A1:D95">
+    <sortState ref="A1:D95">
       <sortCondition ref="A1" descending="1"/>
     </sortState>
   </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="C105" r:id="rId1" display="clearStorage 的同步版本" tooltip="https://developers.weixin.qq.com/miniprogram/dev/api/wx.clearStorage.html"/>
-    <hyperlink ref="C101" r:id="rId2" display="getStorageInfo 的同步版本" tooltip="https://developers.weixin.qq.com/miniprogram/dev/api/wx.getStorageInfo.html"/>
-    <hyperlink ref="C103" r:id="rId3" display="removeStorage 的同步版本" tooltip="https://developers.weixin.qq.com/miniprogram/dev/api/wx.removeStorage.html"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
